--- a/app/static/uploads/tabela_planilha.xlsx
+++ b/app/static/uploads/tabela_planilha.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28906"/>
-  <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B7086FCF-6D2D-47BD-9164-C48022D5C7F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28914"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{37583E98-D8EF-4058-8F09-2D5960563769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1EFC1A00-DCA6-4636-A2BD-065FF7E4312E}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha1" sheetId="1" r:id="rId1"/>
@@ -31,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>CODIGO</t>
   </si>
@@ -41,16 +46,35 @@
   <si>
     <t>FISICO</t>
   </si>
+  <si>
+    <t>DIFERENCA</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Aptos Narrow"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -63,7 +87,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -71,18 +95,62 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -105,39 +173,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="0E2841"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E8E8E8"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="145F82"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="E87331"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="186C24"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="0F9ED5"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="A02B93"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="4EA72E"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="467886"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="96607D"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Aptos Display" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -189,7 +257,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -300,6 +368,13 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -308,13 +383,6 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -379,27 +447,7 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults>
-    <a:lnDef>
-      <a:spPr/>
-      <a:bodyPr/>
-      <a:lstStyle/>
-      <a:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="accent1"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent1"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </a:style>
-    </a:lnDef>
-  </a:objectDefaults>
+  <a:objectDefaults/>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -410,49 +458,1748 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C256A14-3F27-49E5-A34A-F88D72D47B2A}">
+  <dimension ref="A1:D211"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="10.5703125" customWidth="1"/>
+    <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
+    <row r="1" spans="1:4">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2">
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4">
+      <c r="A2" s="1">
+        <v>65</v>
+      </c>
+      <c r="B2" s="1">
+        <v>59</v>
+      </c>
+      <c r="C2" s="1">
+        <v>59</v>
+      </c>
+      <c r="D2" s="1">
+        <f>-B2+C2</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" s="1">
+        <v>2365</v>
+      </c>
+      <c r="B3" s="1">
+        <v>8</v>
+      </c>
+      <c r="C3" s="1">
+        <v>8</v>
+      </c>
+      <c r="D3" s="1">
+        <f t="shared" ref="D3:D60" si="0">-B3+C3</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" s="1">
+        <v>2355</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="1">
+        <v>2364</v>
+      </c>
+      <c r="B5" s="1">
+        <v>481</v>
+      </c>
+      <c r="C5" s="1">
+        <v>489</v>
+      </c>
+      <c r="D5" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="1">
+        <v>5429</v>
+      </c>
+      <c r="B6" s="1">
+        <v>16</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1">
+        <f t="shared" si="0"/>
+        <v>-16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="1">
+        <v>12</v>
+      </c>
+      <c r="B7" s="1">
+        <v>298</v>
+      </c>
+      <c r="C7" s="1">
+        <v>298</v>
+      </c>
+      <c r="D7" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="1">
+        <v>3794</v>
+      </c>
+      <c r="B8" s="1">
+        <v>395</v>
+      </c>
+      <c r="C8" s="1">
+        <v>428</v>
+      </c>
+      <c r="D8" s="1">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="1">
+        <v>10286</v>
+      </c>
+      <c r="B9" s="1">
+        <v>75</v>
+      </c>
+      <c r="C9" s="1">
+        <v>42</v>
+      </c>
+      <c r="D9" s="1">
+        <f t="shared" si="0"/>
+        <v>-33</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="1">
+        <v>8883</v>
+      </c>
+      <c r="B10" s="1">
+        <v>2144</v>
+      </c>
+      <c r="C10" s="1">
+        <v>2144</v>
+      </c>
+      <c r="D10" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="1">
         <v>339</v>
       </c>
-      <c r="B2">
+      <c r="B11" s="1">
+        <v>215</v>
+      </c>
+      <c r="C11" s="1">
+        <v>240</v>
+      </c>
+      <c r="D11" s="1">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="1">
+        <v>1795</v>
+      </c>
+      <c r="B12" s="1">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
         <v>10</v>
       </c>
-      <c r="C2">
+      <c r="D12" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="1">
+        <v>5517</v>
+      </c>
+      <c r="B13" s="1">
+        <v>30</v>
+      </c>
+      <c r="C13" s="1">
+        <v>40</v>
+      </c>
+      <c r="D13" s="1">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="1">
+        <v>5415</v>
+      </c>
+      <c r="B14" s="1">
+        <v>1354</v>
+      </c>
+      <c r="C14" s="1">
+        <v>1354</v>
+      </c>
+      <c r="D14" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="1">
+        <v>5518</v>
+      </c>
+      <c r="B15" s="1">
+        <v>128</v>
+      </c>
+      <c r="C15" s="1">
+        <v>133</v>
+      </c>
+      <c r="D15" s="1">
+        <f t="shared" si="0"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="1">
+        <v>4191</v>
+      </c>
+      <c r="B16" s="1">
+        <v>780</v>
+      </c>
+      <c r="C16" s="1">
+        <v>783</v>
+      </c>
+      <c r="D16" s="1">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="1">
+        <v>3792</v>
+      </c>
+      <c r="B17" s="1">
+        <v>96</v>
+      </c>
+      <c r="C17" s="1">
+        <v>104</v>
+      </c>
+      <c r="D17" s="1">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="1">
+        <v>1796</v>
+      </c>
+      <c r="B18" s="1">
+        <v>11</v>
+      </c>
+      <c r="C18" s="1">
+        <v>10</v>
+      </c>
+      <c r="D18" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1">
+        <v>368</v>
+      </c>
+      <c r="B19" s="1">
+        <v>296</v>
+      </c>
+      <c r="C19" s="1">
+        <v>296</v>
+      </c>
+      <c r="D19" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20" s="1">
+        <v>11128</v>
+      </c>
+      <c r="B20" s="1">
+        <v>36</v>
+      </c>
+      <c r="C20" s="1">
+        <v>38</v>
+      </c>
+      <c r="D20" s="1">
+        <f t="shared" si="0"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21" s="1">
+        <v>33</v>
+      </c>
+      <c r="B21" s="1">
+        <v>175</v>
+      </c>
+      <c r="C21" s="1">
+        <v>175</v>
+      </c>
+      <c r="D21" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22" s="1">
+        <v>7796</v>
+      </c>
+      <c r="B22" s="1">
+        <v>0</v>
+      </c>
+      <c r="C22" s="1">
+        <v>0</v>
+      </c>
+      <c r="D22" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4">
+      <c r="A23" s="1">
+        <v>7729</v>
+      </c>
+      <c r="B23" s="1">
+        <v>54</v>
+      </c>
+      <c r="C23" s="1">
+        <v>54</v>
+      </c>
+      <c r="D23" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4">
+      <c r="A24" s="1">
+        <v>11123</v>
+      </c>
+      <c r="B24" s="1">
+        <v>17</v>
+      </c>
+      <c r="C24" s="1">
+        <v>11</v>
+      </c>
+      <c r="D24" s="1">
+        <f t="shared" si="0"/>
+        <v>-6</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="1">
+        <v>8880</v>
+      </c>
+      <c r="B25" s="1">
+        <v>2</v>
+      </c>
+      <c r="C25" s="1">
+        <v>1</v>
+      </c>
+      <c r="D25" s="1">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="1">
+        <v>1466</v>
+      </c>
+      <c r="B26" s="1">
+        <v>2</v>
+      </c>
+      <c r="C26" s="1">
+        <v>0</v>
+      </c>
+      <c r="D26" s="1">
+        <f t="shared" si="0"/>
+        <v>-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4">
+      <c r="A27" s="1">
+        <v>3</v>
+      </c>
+      <c r="B27" s="1">
+        <v>58</v>
+      </c>
+      <c r="C27" s="1">
+        <v>55</v>
+      </c>
+      <c r="D27" s="1">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4">
+      <c r="A28" s="1">
+        <v>2814</v>
+      </c>
+      <c r="B28" s="1">
+        <v>254</v>
+      </c>
+      <c r="C28" s="1">
+        <v>254</v>
+      </c>
+      <c r="D28" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4">
+      <c r="A29" s="1">
+        <v>2813</v>
+      </c>
+      <c r="B29" s="1">
+        <v>22</v>
+      </c>
+      <c r="C29" s="1">
+        <v>33</v>
+      </c>
+      <c r="D29" s="1">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4">
+      <c r="A30" s="1">
+        <v>1468</v>
+      </c>
+      <c r="B30" s="1">
+        <v>14</v>
+      </c>
+      <c r="C30" s="1">
+        <v>31</v>
+      </c>
+      <c r="D30" s="1">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4">
+      <c r="A31" s="1">
+        <v>7263</v>
+      </c>
+      <c r="B31" s="1">
+        <v>0</v>
+      </c>
+      <c r="C31" s="1">
+        <v>12</v>
+      </c>
+      <c r="D31" s="1">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4">
+      <c r="A32" s="1">
+        <v>11252</v>
+      </c>
+      <c r="B32" s="1">
+        <v>0</v>
+      </c>
+      <c r="C32" s="1">
+        <v>0</v>
+      </c>
+      <c r="D32" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4">
+      <c r="A33" s="1">
+        <v>10296</v>
+      </c>
+      <c r="B33" s="1">
+        <v>3</v>
+      </c>
+      <c r="C33" s="1">
+        <v>3</v>
+      </c>
+      <c r="D33" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4">
+      <c r="A34" s="1">
+        <v>10654</v>
+      </c>
+      <c r="B34" s="1">
+        <v>23</v>
+      </c>
+      <c r="C34" s="1">
+        <v>30</v>
+      </c>
+      <c r="D34" s="1">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4">
+      <c r="A35" s="1">
+        <v>10782</v>
+      </c>
+      <c r="B35" s="1">
+        <v>103</v>
+      </c>
+      <c r="C35" s="1">
+        <v>0</v>
+      </c>
+      <c r="D35" s="1">
+        <f t="shared" si="0"/>
+        <v>-103</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" s="1">
+        <v>11126</v>
+      </c>
+      <c r="B36" s="1">
+        <v>213</v>
+      </c>
+      <c r="C36" s="1">
+        <v>213</v>
+      </c>
+      <c r="D36" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" s="1">
+        <v>405</v>
+      </c>
+      <c r="B37" s="1">
+        <v>4</v>
+      </c>
+      <c r="C37" s="1">
+        <v>25</v>
+      </c>
+      <c r="D37" s="1">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="1">
+        <v>10746</v>
+      </c>
+      <c r="B38" s="1">
+        <v>7</v>
+      </c>
+      <c r="C38" s="1">
+        <v>20</v>
+      </c>
+      <c r="D38" s="1">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4">
+      <c r="A39" s="1">
+        <v>11314</v>
+      </c>
+      <c r="B39" s="1">
+        <v>826</v>
+      </c>
+      <c r="C39" s="1">
+        <v>826</v>
+      </c>
+      <c r="D39" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="1">
+        <v>9074</v>
+      </c>
+      <c r="B40" s="1">
+        <v>373</v>
+      </c>
+      <c r="C40" s="1">
+        <v>373</v>
+      </c>
+      <c r="D40" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="1">
+        <v>10067</v>
+      </c>
+      <c r="B41" s="1">
+        <v>0</v>
+      </c>
+      <c r="C41" s="1">
+        <v>0</v>
+      </c>
+      <c r="D41" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="1">
+        <v>11340</v>
+      </c>
+      <c r="B42" s="1">
+        <v>46</v>
+      </c>
+      <c r="C42" s="1">
+        <v>57</v>
+      </c>
+      <c r="D42" s="1">
+        <f>-B42+C42</f>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="1">
+        <v>11341</v>
+      </c>
+      <c r="B43" s="1">
+        <v>27</v>
+      </c>
+      <c r="C43" s="1">
+        <v>27</v>
+      </c>
+      <c r="D43" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="1">
+        <v>10747</v>
+      </c>
+      <c r="B44" s="1">
+        <v>2</v>
+      </c>
+      <c r="C44" s="1">
+        <v>6</v>
+      </c>
+      <c r="D44" s="1">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="1">
+        <v>6</v>
+      </c>
+      <c r="B45" s="1">
+        <v>474</v>
+      </c>
+      <c r="C45" s="1">
+        <v>474</v>
+      </c>
+      <c r="D45" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="1">
+        <v>3144</v>
+      </c>
+      <c r="B46" s="1">
+        <v>3</v>
+      </c>
+      <c r="C46" s="1">
+        <v>0</v>
+      </c>
+      <c r="D46" s="1">
+        <f t="shared" si="0"/>
+        <v>-3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="1">
+        <v>6582</v>
+      </c>
+      <c r="B47" s="1">
+        <v>75</v>
+      </c>
+      <c r="C47" s="1">
+        <v>90</v>
+      </c>
+      <c r="D47" s="1">
+        <f t="shared" si="0"/>
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3">
-        <v>450</v>
-      </c>
-      <c r="B3">
-        <v>15</v>
-      </c>
-      <c r="C3">
-        <v>10</v>
-      </c>
+    <row r="48" spans="1:4">
+      <c r="A48" s="1">
+        <v>8870</v>
+      </c>
+      <c r="B48" s="1">
+        <v>475</v>
+      </c>
+      <c r="C48" s="1">
+        <v>475</v>
+      </c>
+      <c r="D48" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4">
+      <c r="A49" s="1">
+        <v>11313</v>
+      </c>
+      <c r="B49" s="1">
+        <v>168</v>
+      </c>
+      <c r="C49" s="1">
+        <v>168</v>
+      </c>
+      <c r="D49" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="1">
+        <v>4282</v>
+      </c>
+      <c r="B50" s="1">
+        <v>0</v>
+      </c>
+      <c r="C50" s="1">
+        <v>0</v>
+      </c>
+      <c r="D50" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4">
+      <c r="A51" s="1">
+        <v>242</v>
+      </c>
+      <c r="B51" s="1">
+        <v>5304</v>
+      </c>
+      <c r="C51" s="1">
+        <v>5304</v>
+      </c>
+      <c r="D51" s="1">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="5">
+        <v>11317</v>
+      </c>
+      <c r="B52" s="5">
+        <v>7</v>
+      </c>
+      <c r="C52" s="5">
+        <v>7</v>
+      </c>
+      <c r="D52" s="6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="3"/>
+      <c r="B53" s="3"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="3"/>
+      <c r="B54" s="3"/>
+      <c r="C54" s="3"/>
+      <c r="D54" s="3"/>
+    </row>
+    <row r="55" spans="1:4">
+      <c r="A55" s="3"/>
+      <c r="B55" s="3"/>
+      <c r="C55" s="3"/>
+      <c r="D55" s="3"/>
+    </row>
+    <row r="56" spans="1:4">
+      <c r="A56" s="3"/>
+      <c r="B56" s="3"/>
+      <c r="C56" s="3"/>
+      <c r="D56" s="3"/>
+    </row>
+    <row r="57" spans="1:4">
+      <c r="A57" s="3"/>
+      <c r="B57" s="3"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:4">
+      <c r="A58" s="3"/>
+      <c r="B58" s="3"/>
+      <c r="C58" s="3"/>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:4">
+      <c r="A59" s="3"/>
+      <c r="B59" s="3"/>
+      <c r="C59" s="3"/>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="3"/>
+      <c r="B60" s="3"/>
+      <c r="C60" s="3"/>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="61" spans="1:4">
+      <c r="A61" s="3"/>
+      <c r="B61" s="3"/>
+      <c r="C61" s="3"/>
+      <c r="D61" s="3"/>
+    </row>
+    <row r="62" spans="1:4">
+      <c r="A62" s="3"/>
+      <c r="B62" s="3"/>
+      <c r="C62" s="3"/>
+      <c r="D62" s="3"/>
+    </row>
+    <row r="63" spans="1:4">
+      <c r="A63" s="3"/>
+      <c r="B63" s="3"/>
+      <c r="C63" s="3"/>
+      <c r="D63" s="3"/>
+    </row>
+    <row r="64" spans="1:4">
+      <c r="A64" s="3"/>
+      <c r="B64" s="3"/>
+      <c r="C64" s="3"/>
+      <c r="D64" s="3"/>
+    </row>
+    <row r="65" spans="1:4">
+      <c r="A65" s="3"/>
+      <c r="B65" s="3"/>
+      <c r="C65" s="3"/>
+      <c r="D65" s="3"/>
+    </row>
+    <row r="66" spans="1:4">
+      <c r="A66" s="3"/>
+      <c r="B66" s="3"/>
+      <c r="C66" s="3"/>
+      <c r="D66" s="3"/>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="3"/>
+      <c r="B67" s="3"/>
+      <c r="C67" s="3"/>
+      <c r="D67" s="3"/>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="3"/>
+      <c r="B68" s="3"/>
+      <c r="C68" s="3"/>
+      <c r="D68" s="3"/>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="3"/>
+      <c r="B69" s="3"/>
+      <c r="C69" s="3"/>
+      <c r="D69" s="3"/>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="3"/>
+      <c r="B70" s="3"/>
+      <c r="C70" s="3"/>
+      <c r="D70" s="3"/>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="3"/>
+      <c r="B71" s="3"/>
+      <c r="C71" s="3"/>
+      <c r="D71" s="3"/>
+    </row>
+    <row r="72" spans="1:4">
+      <c r="A72" s="3"/>
+      <c r="B72" s="3"/>
+      <c r="C72" s="3"/>
+      <c r="D72" s="3"/>
+    </row>
+    <row r="73" spans="1:4">
+      <c r="A73" s="3"/>
+      <c r="B73" s="3"/>
+      <c r="C73" s="3"/>
+      <c r="D73" s="3"/>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="3"/>
+      <c r="B74" s="3"/>
+      <c r="C74" s="3"/>
+      <c r="D74" s="3"/>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="3"/>
+      <c r="B75" s="3"/>
+      <c r="C75" s="3"/>
+      <c r="D75" s="3"/>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="3"/>
+      <c r="B76" s="3"/>
+      <c r="C76" s="3"/>
+      <c r="D76" s="3"/>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="3"/>
+      <c r="B77" s="3"/>
+      <c r="C77" s="3"/>
+      <c r="D77" s="3"/>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="3"/>
+      <c r="B78" s="3"/>
+      <c r="C78" s="3"/>
+      <c r="D78" s="3"/>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="3"/>
+      <c r="B79" s="3"/>
+      <c r="C79" s="3"/>
+      <c r="D79" s="3"/>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="3"/>
+      <c r="B80" s="3"/>
+      <c r="C80" s="3"/>
+      <c r="D80" s="3"/>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="3"/>
+      <c r="B81" s="3"/>
+      <c r="C81" s="3"/>
+      <c r="D81" s="3"/>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="3"/>
+      <c r="B82" s="3"/>
+      <c r="C82" s="3"/>
+      <c r="D82" s="3"/>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="3"/>
+      <c r="B83" s="3"/>
+      <c r="C83" s="3"/>
+      <c r="D83" s="3"/>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="3"/>
+      <c r="B84" s="3"/>
+      <c r="C84" s="3"/>
+      <c r="D84" s="3"/>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="3"/>
+      <c r="B85" s="3"/>
+      <c r="C85" s="3"/>
+      <c r="D85" s="3"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="3"/>
+      <c r="B86" s="3"/>
+      <c r="C86" s="3"/>
+      <c r="D86" s="3"/>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="3"/>
+      <c r="B87" s="3"/>
+      <c r="C87" s="3"/>
+      <c r="D87" s="3"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="3"/>
+      <c r="B88" s="3"/>
+      <c r="C88" s="3"/>
+      <c r="D88" s="3"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="3"/>
+      <c r="B89" s="3"/>
+      <c r="C89" s="3"/>
+      <c r="D89" s="3"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="3"/>
+      <c r="B90" s="3"/>
+      <c r="C90" s="3"/>
+      <c r="D90" s="3"/>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="3"/>
+      <c r="B91" s="3"/>
+      <c r="C91" s="3"/>
+      <c r="D91" s="3"/>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="3"/>
+      <c r="B92" s="3"/>
+      <c r="C92" s="3"/>
+      <c r="D92" s="3"/>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="3"/>
+      <c r="B93" s="3"/>
+      <c r="C93" s="3"/>
+      <c r="D93" s="3"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="3"/>
+      <c r="B94" s="3"/>
+      <c r="C94" s="3"/>
+      <c r="D94" s="3"/>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="3"/>
+      <c r="B95" s="3"/>
+      <c r="C95" s="3"/>
+      <c r="D95" s="3"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="3"/>
+      <c r="B96" s="3"/>
+      <c r="C96" s="3"/>
+      <c r="D96" s="3"/>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="3"/>
+      <c r="B97" s="3"/>
+      <c r="C97" s="3"/>
+      <c r="D97" s="3"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="3"/>
+      <c r="B98" s="3"/>
+      <c r="C98" s="3"/>
+      <c r="D98" s="3"/>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="3"/>
+      <c r="B99" s="3"/>
+      <c r="C99" s="3"/>
+      <c r="D99" s="3"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="3"/>
+      <c r="B100" s="3"/>
+      <c r="C100" s="3"/>
+      <c r="D100" s="3"/>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="3"/>
+      <c r="B101" s="3"/>
+      <c r="C101" s="3"/>
+      <c r="D101" s="3"/>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="3"/>
+      <c r="B102" s="3"/>
+      <c r="C102" s="3"/>
+      <c r="D102" s="3"/>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="3"/>
+      <c r="B103" s="3"/>
+      <c r="C103" s="3"/>
+      <c r="D103" s="3"/>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="3"/>
+      <c r="B104" s="3"/>
+      <c r="C104" s="3"/>
+      <c r="D104" s="3"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="3"/>
+      <c r="B105" s="3"/>
+      <c r="C105" s="3"/>
+      <c r="D105" s="3"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="3"/>
+      <c r="B106" s="3"/>
+      <c r="C106" s="3"/>
+      <c r="D106" s="3"/>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="3"/>
+      <c r="B107" s="3"/>
+      <c r="C107" s="3"/>
+      <c r="D107" s="3"/>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="3"/>
+      <c r="B108" s="3"/>
+      <c r="C108" s="3"/>
+      <c r="D108" s="3"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="3"/>
+      <c r="B109" s="3"/>
+      <c r="C109" s="3"/>
+      <c r="D109" s="3"/>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="3"/>
+      <c r="B110" s="3"/>
+      <c r="C110" s="3"/>
+      <c r="D110" s="3"/>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="3"/>
+      <c r="B111" s="3"/>
+      <c r="C111" s="3"/>
+      <c r="D111" s="3"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="3"/>
+      <c r="B112" s="3"/>
+      <c r="C112" s="3"/>
+      <c r="D112" s="3"/>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="3"/>
+      <c r="B113" s="3"/>
+      <c r="C113" s="3"/>
+      <c r="D113" s="3"/>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="3"/>
+      <c r="B114" s="3"/>
+      <c r="C114" s="3"/>
+      <c r="D114" s="3"/>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" s="3"/>
+      <c r="B115" s="3"/>
+      <c r="C115" s="3"/>
+      <c r="D115" s="3"/>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" s="3"/>
+      <c r="B116" s="3"/>
+      <c r="C116" s="3"/>
+      <c r="D116" s="3"/>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="3"/>
+      <c r="B117" s="3"/>
+      <c r="C117" s="3"/>
+      <c r="D117" s="3"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="3"/>
+      <c r="B118" s="3"/>
+      <c r="C118" s="3"/>
+      <c r="D118" s="3"/>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" s="3"/>
+      <c r="B119" s="3"/>
+      <c r="C119" s="3"/>
+      <c r="D119" s="3"/>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="3"/>
+      <c r="B120" s="3"/>
+      <c r="C120" s="3"/>
+      <c r="D120" s="3"/>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" s="3"/>
+      <c r="B121" s="3"/>
+      <c r="C121" s="3"/>
+      <c r="D121" s="3"/>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" s="3"/>
+      <c r="B122" s="3"/>
+      <c r="C122" s="3"/>
+      <c r="D122" s="3"/>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" s="3"/>
+      <c r="B123" s="3"/>
+      <c r="C123" s="3"/>
+      <c r="D123" s="3"/>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124" s="3"/>
+      <c r="B124" s="3"/>
+      <c r="C124" s="3"/>
+      <c r="D124" s="3"/>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" s="3"/>
+      <c r="B125" s="3"/>
+      <c r="C125" s="3"/>
+      <c r="D125" s="3"/>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" s="3"/>
+      <c r="B126" s="3"/>
+      <c r="C126" s="3"/>
+      <c r="D126" s="3"/>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" s="3"/>
+      <c r="B127" s="3"/>
+      <c r="C127" s="3"/>
+      <c r="D127" s="3"/>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128" s="3"/>
+      <c r="B128" s="3"/>
+      <c r="C128" s="3"/>
+      <c r="D128" s="3"/>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" s="3"/>
+      <c r="B129" s="3"/>
+      <c r="C129" s="3"/>
+      <c r="D129" s="3"/>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" s="3"/>
+      <c r="B130" s="3"/>
+      <c r="C130" s="3"/>
+      <c r="D130" s="3"/>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" s="3"/>
+      <c r="B131" s="3"/>
+      <c r="C131" s="3"/>
+      <c r="D131" s="3"/>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" s="3"/>
+      <c r="B132" s="3"/>
+      <c r="C132" s="3"/>
+      <c r="D132" s="3"/>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" s="3"/>
+      <c r="B133" s="3"/>
+      <c r="C133" s="3"/>
+      <c r="D133" s="3"/>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" s="3"/>
+      <c r="B134" s="3"/>
+      <c r="C134" s="3"/>
+      <c r="D134" s="3"/>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" s="3"/>
+      <c r="B135" s="3"/>
+      <c r="C135" s="3"/>
+      <c r="D135" s="3"/>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" s="3"/>
+      <c r="B136" s="3"/>
+      <c r="C136" s="3"/>
+      <c r="D136" s="3"/>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" s="3"/>
+      <c r="B137" s="3"/>
+      <c r="C137" s="3"/>
+      <c r="D137" s="3"/>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" s="3"/>
+      <c r="B138" s="3"/>
+      <c r="C138" s="3"/>
+      <c r="D138" s="3"/>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" s="3"/>
+      <c r="B139" s="3"/>
+      <c r="C139" s="3"/>
+      <c r="D139" s="3"/>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" s="3"/>
+      <c r="B140" s="3"/>
+      <c r="C140" s="3"/>
+      <c r="D140" s="3"/>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" s="3"/>
+      <c r="B141" s="3"/>
+      <c r="C141" s="3"/>
+      <c r="D141" s="3"/>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="3"/>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="3"/>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" s="3"/>
+      <c r="B146" s="3"/>
+      <c r="C146" s="3"/>
+      <c r="D146" s="3"/>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147" s="3"/>
+      <c r="B147" s="3"/>
+      <c r="C147" s="3"/>
+      <c r="D147" s="3"/>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" s="3"/>
+      <c r="B148" s="3"/>
+      <c r="C148" s="3"/>
+      <c r="D148" s="3"/>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" s="3"/>
+      <c r="B149" s="3"/>
+      <c r="C149" s="3"/>
+      <c r="D149" s="3"/>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" s="3"/>
+      <c r="B150" s="3"/>
+      <c r="C150" s="3"/>
+      <c r="D150" s="3"/>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" s="3"/>
+      <c r="B151" s="3"/>
+      <c r="C151" s="3"/>
+      <c r="D151" s="3"/>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" s="3"/>
+      <c r="B152" s="3"/>
+      <c r="C152" s="3"/>
+      <c r="D152" s="3"/>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" s="3"/>
+      <c r="B153" s="3"/>
+      <c r="C153" s="3"/>
+      <c r="D153" s="3"/>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" s="3"/>
+      <c r="B154" s="3"/>
+      <c r="C154" s="3"/>
+      <c r="D154" s="3"/>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" s="3"/>
+      <c r="B155" s="3"/>
+      <c r="C155" s="3"/>
+      <c r="D155" s="3"/>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" s="3"/>
+      <c r="B156" s="3"/>
+      <c r="C156" s="3"/>
+      <c r="D156" s="3"/>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" s="3"/>
+      <c r="B157" s="3"/>
+      <c r="C157" s="3"/>
+      <c r="D157" s="3"/>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" s="3"/>
+      <c r="B158" s="3"/>
+      <c r="C158" s="3"/>
+      <c r="D158" s="3"/>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" s="3"/>
+      <c r="B159" s="3"/>
+      <c r="C159" s="3"/>
+      <c r="D159" s="3"/>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" s="3"/>
+      <c r="B160" s="3"/>
+      <c r="C160" s="3"/>
+      <c r="D160" s="3"/>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" s="3"/>
+      <c r="B161" s="3"/>
+      <c r="C161" s="3"/>
+      <c r="D161" s="3"/>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" s="3"/>
+      <c r="B162" s="3"/>
+      <c r="C162" s="3"/>
+      <c r="D162" s="3"/>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" s="3"/>
+      <c r="B163" s="3"/>
+      <c r="C163" s="3"/>
+      <c r="D163" s="3"/>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" s="3"/>
+      <c r="B164" s="3"/>
+      <c r="C164" s="3"/>
+      <c r="D164" s="3"/>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" s="3"/>
+      <c r="B165" s="3"/>
+      <c r="C165" s="3"/>
+      <c r="D165" s="3"/>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" s="3"/>
+      <c r="B166" s="3"/>
+      <c r="C166" s="3"/>
+      <c r="D166" s="3"/>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" s="3"/>
+      <c r="B167" s="3"/>
+      <c r="C167" s="3"/>
+      <c r="D167" s="3"/>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" s="3"/>
+      <c r="B168" s="3"/>
+      <c r="C168" s="3"/>
+      <c r="D168" s="3"/>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" s="3"/>
+      <c r="B169" s="3"/>
+      <c r="C169" s="3"/>
+      <c r="D169" s="3"/>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" s="3"/>
+      <c r="B170" s="3"/>
+      <c r="C170" s="3"/>
+      <c r="D170" s="3"/>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" s="3"/>
+      <c r="B171" s="3"/>
+      <c r="C171" s="3"/>
+      <c r="D171" s="3"/>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" s="3"/>
+      <c r="B172" s="3"/>
+      <c r="C172" s="3"/>
+      <c r="D172" s="3"/>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" s="3"/>
+      <c r="B173" s="3"/>
+      <c r="C173" s="3"/>
+      <c r="D173" s="3"/>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" s="3"/>
+      <c r="B174" s="3"/>
+      <c r="C174" s="3"/>
+      <c r="D174" s="3"/>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" s="3"/>
+      <c r="B175" s="3"/>
+      <c r="C175" s="3"/>
+      <c r="D175" s="3"/>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" s="3"/>
+      <c r="B176" s="3"/>
+      <c r="C176" s="3"/>
+      <c r="D176" s="3"/>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177" s="3"/>
+      <c r="B177" s="3"/>
+      <c r="C177" s="3"/>
+      <c r="D177" s="3"/>
+    </row>
+    <row r="178" spans="1:4">
+      <c r="A178" s="3"/>
+      <c r="B178" s="3"/>
+      <c r="C178" s="3"/>
+      <c r="D178" s="3"/>
+    </row>
+    <row r="179" spans="1:4">
+      <c r="A179" s="3"/>
+      <c r="B179" s="3"/>
+      <c r="C179" s="3"/>
+      <c r="D179" s="3"/>
+    </row>
+    <row r="180" spans="1:4">
+      <c r="A180" s="3"/>
+      <c r="B180" s="3"/>
+      <c r="C180" s="3"/>
+      <c r="D180" s="3"/>
+    </row>
+    <row r="181" spans="1:4">
+      <c r="A181" s="3"/>
+      <c r="B181" s="3"/>
+      <c r="C181" s="3"/>
+      <c r="D181" s="3"/>
+    </row>
+    <row r="182" spans="1:4">
+      <c r="A182" s="3"/>
+      <c r="B182" s="3"/>
+      <c r="C182" s="3"/>
+      <c r="D182" s="3"/>
+    </row>
+    <row r="183" spans="1:4">
+      <c r="A183" s="3"/>
+      <c r="B183" s="3"/>
+      <c r="C183" s="3"/>
+      <c r="D183" s="3"/>
+    </row>
+    <row r="184" spans="1:4">
+      <c r="A184" s="3"/>
+      <c r="B184" s="3"/>
+      <c r="C184" s="3"/>
+      <c r="D184" s="3"/>
+    </row>
+    <row r="185" spans="1:4">
+      <c r="A185" s="3"/>
+      <c r="B185" s="3"/>
+      <c r="C185" s="3"/>
+      <c r="D185" s="3"/>
+    </row>
+    <row r="186" spans="1:4">
+      <c r="A186" s="3"/>
+      <c r="B186" s="3"/>
+      <c r="C186" s="3"/>
+      <c r="D186" s="3"/>
+    </row>
+    <row r="187" spans="1:4">
+      <c r="A187" s="3"/>
+      <c r="B187" s="3"/>
+      <c r="C187" s="3"/>
+      <c r="D187" s="3"/>
+    </row>
+    <row r="188" spans="1:4">
+      <c r="A188" s="3"/>
+      <c r="B188" s="3"/>
+      <c r="C188" s="3"/>
+      <c r="D188" s="3"/>
+    </row>
+    <row r="189" spans="1:4">
+      <c r="A189" s="3"/>
+      <c r="B189" s="3"/>
+      <c r="C189" s="3"/>
+      <c r="D189" s="3"/>
+    </row>
+    <row r="190" spans="1:4">
+      <c r="A190" s="3"/>
+      <c r="B190" s="3"/>
+      <c r="C190" s="3"/>
+      <c r="D190" s="3"/>
+    </row>
+    <row r="191" spans="1:4">
+      <c r="A191" s="3"/>
+      <c r="B191" s="3"/>
+      <c r="C191" s="3"/>
+      <c r="D191" s="3"/>
+    </row>
+    <row r="192" spans="1:4">
+      <c r="A192" s="3"/>
+      <c r="B192" s="3"/>
+      <c r="C192" s="3"/>
+      <c r="D192" s="3"/>
+    </row>
+    <row r="193" spans="1:4">
+      <c r="A193" s="3"/>
+      <c r="B193" s="3"/>
+      <c r="C193" s="3"/>
+      <c r="D193" s="3"/>
+    </row>
+    <row r="194" spans="1:4">
+      <c r="A194" s="3"/>
+      <c r="B194" s="3"/>
+      <c r="C194" s="3"/>
+      <c r="D194" s="3"/>
+    </row>
+    <row r="195" spans="1:4">
+      <c r="A195" s="3"/>
+      <c r="B195" s="3"/>
+      <c r="C195" s="3"/>
+      <c r="D195" s="3"/>
+    </row>
+    <row r="196" spans="1:4">
+      <c r="A196" s="3"/>
+      <c r="B196" s="3"/>
+      <c r="C196" s="3"/>
+      <c r="D196" s="3"/>
+    </row>
+    <row r="197" spans="1:4">
+      <c r="A197" s="3"/>
+      <c r="B197" s="3"/>
+      <c r="C197" s="3"/>
+      <c r="D197" s="3"/>
+    </row>
+    <row r="198" spans="1:4">
+      <c r="A198" s="4"/>
+      <c r="B198" s="4"/>
+      <c r="C198" s="4"/>
+      <c r="D198" s="4"/>
+    </row>
+    <row r="199" spans="1:4">
+      <c r="A199" s="4"/>
+      <c r="B199" s="4"/>
+      <c r="C199" s="4"/>
+      <c r="D199" s="4"/>
+    </row>
+    <row r="200" spans="1:4">
+      <c r="A200" s="4"/>
+      <c r="B200" s="4"/>
+      <c r="C200" s="4"/>
+      <c r="D200" s="4"/>
+    </row>
+    <row r="201" spans="1:4">
+      <c r="A201" s="4"/>
+      <c r="B201" s="4"/>
+      <c r="C201" s="4"/>
+      <c r="D201" s="4"/>
+    </row>
+    <row r="202" spans="1:4">
+      <c r="A202" s="4"/>
+      <c r="B202" s="4"/>
+      <c r="C202" s="4"/>
+      <c r="D202" s="4"/>
+    </row>
+    <row r="203" spans="1:4">
+      <c r="A203" s="4"/>
+      <c r="B203" s="4"/>
+      <c r="C203" s="4"/>
+      <c r="D203" s="4"/>
+    </row>
+    <row r="204" spans="1:4">
+      <c r="A204" s="4"/>
+      <c r="B204" s="4"/>
+      <c r="C204" s="4"/>
+      <c r="D204" s="4"/>
+    </row>
+    <row r="205" spans="1:4">
+      <c r="A205" s="4"/>
+      <c r="B205" s="4"/>
+      <c r="C205" s="4"/>
+      <c r="D205" s="4"/>
+    </row>
+    <row r="206" spans="1:4">
+      <c r="A206" s="4"/>
+      <c r="B206" s="4"/>
+      <c r="C206" s="4"/>
+      <c r="D206" s="4"/>
+    </row>
+    <row r="207" spans="1:4">
+      <c r="A207" s="4"/>
+      <c r="B207" s="4"/>
+      <c r="C207" s="4"/>
+      <c r="D207" s="4"/>
+    </row>
+    <row r="208" spans="1:4">
+      <c r="A208" s="4"/>
+      <c r="B208" s="4"/>
+      <c r="C208" s="4"/>
+      <c r="D208" s="4"/>
+    </row>
+    <row r="209" spans="3:4">
+      <c r="C209" s="4"/>
+      <c r="D209" s="4"/>
+    </row>
+    <row r="210" spans="3:4">
+      <c r="C210" s="4"/>
+      <c r="D210" s="4"/>
+    </row>
+    <row r="211" spans="3:4">
+      <c r="C211" s="4"/>
+      <c r="D211" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
 </worksheet>
 </file>
--- a/app/static/uploads/tabela_planilha.xlsx
+++ b/app/static/uploads/tabela_planilha.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{37583E98-D8EF-4058-8F09-2D5960563769}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBFCBF7E-2C0C-4F32-9D05-A35688C1E719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{1EFC1A00-DCA6-4636-A2BD-065FF7E4312E}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="9">
   <si>
     <t>CODIGO</t>
   </si>
@@ -47,14 +47,29 @@
     <t>FISICO</t>
   </si>
   <si>
-    <t>DIFERENCA</t>
+    <t>LOJAS</t>
+  </si>
+  <si>
+    <t>AJUSTE</t>
+  </si>
+  <si>
+    <t>DIVERGENCIA</t>
+  </si>
+  <si>
+    <t>SIM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Não </t>
+  </si>
+  <si>
+    <t>Não</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,14 +79,6 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -127,7 +134,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -140,9 +147,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -459,10 +463,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C256A14-3F27-49E5-A34A-F88D72D47B2A}">
-  <dimension ref="A1:D211"/>
+  <dimension ref="A1:F211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A187" workbookViewId="0">
-      <selection activeCell="A53" sqref="A53:B208"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="F52" sqref="A52:F52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -470,9 +474,10 @@
     <col min="1" max="1" width="10.5703125" customWidth="1"/>
     <col min="3" max="3" width="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -485,8 +490,14 @@
       <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1">
         <v>65</v>
       </c>
@@ -496,12 +507,17 @@
       <c r="C2" s="1">
         <v>59</v>
       </c>
-      <c r="D2" s="1">
-        <f>-B2+C2</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="D2" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1">
         <v>2365</v>
       </c>
@@ -511,12 +527,17 @@
       <c r="C3" s="1">
         <v>8</v>
       </c>
-      <c r="D3" s="1">
-        <f t="shared" ref="D3:D60" si="0">-B3+C3</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="D3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1">
         <v>2355</v>
       </c>
@@ -526,12 +547,17 @@
       <c r="C4" s="1">
         <v>0</v>
       </c>
-      <c r="D4" s="1">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="D4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" t="s">
+        <v>7</v>
+      </c>
+      <c r="F4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1">
         <v>2364</v>
       </c>
@@ -541,12 +567,17 @@
       <c r="C5" s="1">
         <v>489</v>
       </c>
-      <c r="D5" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1">
         <v>5429</v>
       </c>
@@ -556,12 +587,17 @@
       <c r="C6" s="1">
         <v>0</v>
       </c>
-      <c r="D6" s="1">
-        <f t="shared" si="0"/>
-        <v>-16</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1">
         <v>12</v>
       </c>
@@ -571,12 +607,17 @@
       <c r="C7" s="1">
         <v>298</v>
       </c>
-      <c r="D7" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="D7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F7" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1">
         <v>3794</v>
       </c>
@@ -586,12 +627,17 @@
       <c r="C8" s="1">
         <v>428</v>
       </c>
-      <c r="D8" s="1">
-        <f t="shared" si="0"/>
-        <v>33</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="D8" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1">
         <v>10286</v>
       </c>
@@ -601,12 +647,17 @@
       <c r="C9" s="1">
         <v>42</v>
       </c>
-      <c r="D9" s="1">
-        <f t="shared" si="0"/>
-        <v>-33</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="D9" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E9" t="s">
+        <v>7</v>
+      </c>
+      <c r="F9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1">
         <v>8883</v>
       </c>
@@ -616,12 +667,17 @@
       <c r="C10" s="1">
         <v>2144</v>
       </c>
-      <c r="D10" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="D10" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E10" t="s">
+        <v>7</v>
+      </c>
+      <c r="F10" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1">
         <v>339</v>
       </c>
@@ -631,12 +687,17 @@
       <c r="C11" s="1">
         <v>240</v>
       </c>
-      <c r="D11" s="1">
-        <f t="shared" si="0"/>
-        <v>25</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="D11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E11" t="s">
+        <v>7</v>
+      </c>
+      <c r="F11" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1">
         <v>1795</v>
       </c>
@@ -646,12 +707,17 @@
       <c r="C12" s="1">
         <v>10</v>
       </c>
-      <c r="D12" s="1">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="D12" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E12" t="s">
+        <v>7</v>
+      </c>
+      <c r="F12" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1">
         <v>5517</v>
       </c>
@@ -661,12 +727,17 @@
       <c r="C13" s="1">
         <v>40</v>
       </c>
-      <c r="D13" s="1">
-        <f t="shared" si="0"/>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="D13" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E13" t="s">
+        <v>7</v>
+      </c>
+      <c r="F13" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1">
         <v>5415</v>
       </c>
@@ -676,12 +747,17 @@
       <c r="C14" s="1">
         <v>1354</v>
       </c>
-      <c r="D14" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="D14" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14" t="s">
+        <v>7</v>
+      </c>
+      <c r="F14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1">
         <v>5518</v>
       </c>
@@ -691,12 +767,17 @@
       <c r="C15" s="1">
         <v>133</v>
       </c>
-      <c r="D15" s="1">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" t="s">
+        <v>7</v>
+      </c>
+      <c r="F15" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1">
         <v>4191</v>
       </c>
@@ -706,12 +787,17 @@
       <c r="C16" s="1">
         <v>783</v>
       </c>
-      <c r="D16" s="1">
-        <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" t="s">
+        <v>7</v>
+      </c>
+      <c r="F16" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1">
         <v>3792</v>
       </c>
@@ -721,12 +807,17 @@
       <c r="C17" s="1">
         <v>104</v>
       </c>
-      <c r="D17" s="1">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" t="s">
+        <v>7</v>
+      </c>
+      <c r="F17" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1">
         <v>1796</v>
       </c>
@@ -736,12 +827,17 @@
       <c r="C18" s="1">
         <v>10</v>
       </c>
-      <c r="D18" s="1">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" t="s">
+        <v>7</v>
+      </c>
+      <c r="F18" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1">
         <v>368</v>
       </c>
@@ -751,12 +847,17 @@
       <c r="C19" s="1">
         <v>296</v>
       </c>
-      <c r="D19" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" t="s">
+        <v>7</v>
+      </c>
+      <c r="F19" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1">
         <v>11128</v>
       </c>
@@ -766,12 +867,17 @@
       <c r="C20" s="1">
         <v>38</v>
       </c>
-      <c r="D20" s="1">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" t="s">
+        <v>7</v>
+      </c>
+      <c r="F20" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1">
         <v>33</v>
       </c>
@@ -781,12 +887,17 @@
       <c r="C21" s="1">
         <v>175</v>
       </c>
-      <c r="D21" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" t="s">
+        <v>7</v>
+      </c>
+      <c r="F21" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>7796</v>
       </c>
@@ -796,12 +907,17 @@
       <c r="C22" s="1">
         <v>0</v>
       </c>
-      <c r="D22" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" t="s">
+        <v>7</v>
+      </c>
+      <c r="F22" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1">
         <v>7729</v>
       </c>
@@ -811,12 +927,17 @@
       <c r="C23" s="1">
         <v>54</v>
       </c>
-      <c r="D23" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+      <c r="D23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" t="s">
+        <v>7</v>
+      </c>
+      <c r="F23" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1">
         <v>11123</v>
       </c>
@@ -826,12 +947,17 @@
       <c r="C24" s="1">
         <v>11</v>
       </c>
-      <c r="D24" s="1">
-        <f t="shared" si="0"/>
-        <v>-6</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" t="s">
+        <v>7</v>
+      </c>
+      <c r="F24" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1">
         <v>8880</v>
       </c>
@@ -841,12 +967,17 @@
       <c r="C25" s="1">
         <v>1</v>
       </c>
-      <c r="D25" s="1">
-        <f t="shared" si="0"/>
-        <v>-1</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1">
         <v>1466</v>
       </c>
@@ -856,12 +987,17 @@
       <c r="C26" s="1">
         <v>0</v>
       </c>
-      <c r="D26" s="1">
-        <f t="shared" si="0"/>
-        <v>-2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" t="s">
+        <v>7</v>
+      </c>
+      <c r="F26" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1">
         <v>3</v>
       </c>
@@ -871,12 +1007,17 @@
       <c r="C27" s="1">
         <v>55</v>
       </c>
-      <c r="D27" s="1">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="D27" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27" t="s">
+        <v>7</v>
+      </c>
+      <c r="F27" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1">
         <v>2814</v>
       </c>
@@ -886,12 +1027,17 @@
       <c r="C28" s="1">
         <v>254</v>
       </c>
-      <c r="D28" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+      <c r="D28" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E28" t="s">
+        <v>7</v>
+      </c>
+      <c r="F28" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1">
         <v>2813</v>
       </c>
@@ -901,12 +1047,17 @@
       <c r="C29" s="1">
         <v>33</v>
       </c>
-      <c r="D29" s="1">
-        <f t="shared" si="0"/>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" t="s">
+        <v>7</v>
+      </c>
+      <c r="F29" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1">
         <v>1468</v>
       </c>
@@ -916,12 +1067,17 @@
       <c r="C30" s="1">
         <v>31</v>
       </c>
-      <c r="D30" s="1">
-        <f t="shared" si="0"/>
-        <v>17</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+      <c r="D30" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" t="s">
+        <v>7</v>
+      </c>
+      <c r="F30" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1">
         <v>7263</v>
       </c>
@@ -931,12 +1087,17 @@
       <c r="C31" s="1">
         <v>12</v>
       </c>
-      <c r="D31" s="1">
-        <f t="shared" si="0"/>
-        <v>12</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+      <c r="D31" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E31" t="s">
+        <v>7</v>
+      </c>
+      <c r="F31" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1">
         <v>11252</v>
       </c>
@@ -946,12 +1107,17 @@
       <c r="C32" s="1">
         <v>0</v>
       </c>
-      <c r="D32" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+      <c r="D32" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E32" t="s">
+        <v>7</v>
+      </c>
+      <c r="F32" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1">
         <v>10296</v>
       </c>
@@ -961,12 +1127,17 @@
       <c r="C33" s="1">
         <v>3</v>
       </c>
-      <c r="D33" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+      <c r="D33" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" t="s">
+        <v>7</v>
+      </c>
+      <c r="F33" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1">
         <v>10654</v>
       </c>
@@ -976,12 +1147,17 @@
       <c r="C34" s="1">
         <v>30</v>
       </c>
-      <c r="D34" s="1">
-        <f t="shared" si="0"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+      <c r="D34" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F34" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1">
         <v>10782</v>
       </c>
@@ -991,12 +1167,17 @@
       <c r="C35" s="1">
         <v>0</v>
       </c>
-      <c r="D35" s="1">
-        <f t="shared" si="0"/>
-        <v>-103</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+      <c r="D35" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>7</v>
+      </c>
+      <c r="F35" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1">
         <v>11126</v>
       </c>
@@ -1006,12 +1187,17 @@
       <c r="C36" s="1">
         <v>213</v>
       </c>
-      <c r="D36" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+      <c r="D36" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" t="s">
+        <v>7</v>
+      </c>
+      <c r="F36" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1">
         <v>405</v>
       </c>
@@ -1021,12 +1207,17 @@
       <c r="C37" s="1">
         <v>25</v>
       </c>
-      <c r="D37" s="1">
-        <f t="shared" si="0"/>
-        <v>21</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="D37" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E37" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1">
         <v>10746</v>
       </c>
@@ -1036,12 +1227,17 @@
       <c r="C38" s="1">
         <v>20</v>
       </c>
-      <c r="D38" s="1">
-        <f t="shared" si="0"/>
-        <v>13</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="D38" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E38" t="s">
+        <v>7</v>
+      </c>
+      <c r="F38" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1">
         <v>11314</v>
       </c>
@@ -1051,12 +1247,17 @@
       <c r="C39" s="1">
         <v>826</v>
       </c>
-      <c r="D39" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+      <c r="D39" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E39" t="s">
+        <v>7</v>
+      </c>
+      <c r="F39" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1">
         <v>9074</v>
       </c>
@@ -1066,12 +1267,17 @@
       <c r="C40" s="1">
         <v>373</v>
       </c>
-      <c r="D40" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+      <c r="D40" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" t="s">
+        <v>7</v>
+      </c>
+      <c r="F40" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1">
         <v>10067</v>
       </c>
@@ -1081,12 +1287,17 @@
       <c r="C41" s="1">
         <v>0</v>
       </c>
-      <c r="D41" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+      <c r="D41" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E41" t="s">
+        <v>7</v>
+      </c>
+      <c r="F41" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1">
         <v>11340</v>
       </c>
@@ -1096,12 +1307,17 @@
       <c r="C42" s="1">
         <v>57</v>
       </c>
-      <c r="D42" s="1">
-        <f>-B42+C42</f>
-        <v>11</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="D42" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E42" t="s">
+        <v>7</v>
+      </c>
+      <c r="F42" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1">
         <v>11341</v>
       </c>
@@ -1111,12 +1327,17 @@
       <c r="C43" s="1">
         <v>27</v>
       </c>
-      <c r="D43" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+      <c r="D43" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E43" t="s">
+        <v>7</v>
+      </c>
+      <c r="F43" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1">
         <v>10747</v>
       </c>
@@ -1126,12 +1347,17 @@
       <c r="C44" s="1">
         <v>6</v>
       </c>
-      <c r="D44" s="1">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+      <c r="D44" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E44" t="s">
+        <v>7</v>
+      </c>
+      <c r="F44" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1">
         <v>6</v>
       </c>
@@ -1141,12 +1367,17 @@
       <c r="C45" s="1">
         <v>474</v>
       </c>
-      <c r="D45" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="D45" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E45" t="s">
+        <v>7</v>
+      </c>
+      <c r="F45" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>3144</v>
       </c>
@@ -1156,12 +1387,17 @@
       <c r="C46" s="1">
         <v>0</v>
       </c>
-      <c r="D46" s="1">
-        <f t="shared" si="0"/>
-        <v>-3</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+      <c r="D46" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E46" t="s">
+        <v>7</v>
+      </c>
+      <c r="F46" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1">
         <v>6582</v>
       </c>
@@ -1171,12 +1407,17 @@
       <c r="C47" s="1">
         <v>90</v>
       </c>
-      <c r="D47" s="1">
-        <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+      <c r="D47" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E47" t="s">
+        <v>7</v>
+      </c>
+      <c r="F47" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1">
         <v>8870</v>
       </c>
@@ -1186,12 +1427,17 @@
       <c r="C48" s="1">
         <v>475</v>
       </c>
-      <c r="D48" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+      <c r="D48" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E48" t="s">
+        <v>7</v>
+      </c>
+      <c r="F48" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1">
         <v>11313</v>
       </c>
@@ -1201,12 +1447,17 @@
       <c r="C49" s="1">
         <v>168</v>
       </c>
-      <c r="D49" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="D49" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E49" t="s">
+        <v>7</v>
+      </c>
+      <c r="F49" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1">
         <v>4282</v>
       </c>
@@ -1216,12 +1467,17 @@
       <c r="C50" s="1">
         <v>0</v>
       </c>
-      <c r="D50" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+      <c r="D50" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E50" t="s">
+        <v>7</v>
+      </c>
+      <c r="F50" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1">
         <v>242</v>
       </c>
@@ -1231,93 +1487,89 @@
       <c r="C51" s="1">
         <v>5304</v>
       </c>
-      <c r="D51" s="1">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="5">
-        <v>11317</v>
-      </c>
-      <c r="B52" s="5">
-        <v>7</v>
-      </c>
-      <c r="C52" s="5">
-        <v>7</v>
-      </c>
-      <c r="D52" s="6">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="D51" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E51" t="s">
+        <v>7</v>
+      </c>
+      <c r="F51" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="5"/>
+      <c r="B52" s="5"/>
+      <c r="C52" s="5"/>
+      <c r="D52" s="1"/>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="3"/>
       <c r="B53" s="3"/>
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:6">
       <c r="A54" s="3"/>
       <c r="B54" s="3"/>
       <c r="C54" s="3"/>
       <c r="D54" s="3"/>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:6">
       <c r="A55" s="3"/>
       <c r="B55" s="3"/>
       <c r="C55" s="3"/>
       <c r="D55" s="3"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:6">
       <c r="A56" s="3"/>
       <c r="B56" s="3"/>
       <c r="C56" s="3"/>
       <c r="D56" s="3"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:6">
       <c r="A57" s="3"/>
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:6">
       <c r="A58" s="3"/>
       <c r="B58" s="3"/>
       <c r="C58" s="3"/>
       <c r="D58" s="3"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:6">
       <c r="A59" s="3"/>
       <c r="B59" s="3"/>
       <c r="C59" s="3"/>
       <c r="D59" s="3"/>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:6">
       <c r="A60" s="3"/>
       <c r="B60" s="3"/>
       <c r="C60" s="3"/>
       <c r="D60" s="3"/>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:6">
       <c r="A61" s="3"/>
       <c r="B61" s="3"/>
       <c r="C61" s="3"/>
       <c r="D61" s="3"/>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:6">
       <c r="A62" s="3"/>
       <c r="B62" s="3"/>
       <c r="C62" s="3"/>
       <c r="D62" s="3"/>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:6">
       <c r="A63" s="3"/>
       <c r="B63" s="3"/>
       <c r="C63" s="3"/>
       <c r="D63" s="3"/>
     </row>
-    <row r="64" spans="1:4">
+    <row r="64" spans="1:6">
       <c r="A64" s="3"/>
       <c r="B64" s="3"/>
       <c r="C64" s="3"/>
